--- a/Renegade Comms Link Budget.xlsx
+++ b/Renegade Comms Link Budget.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Daniel Morgan\Documents\Rockets\BLT\Akheilos\Avionics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEF42A3C-E162-4105-A63C-D0AEF99E1387}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B261CA2A-780C-409D-BD31-E22B3B9E2861}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="2" xr2:uid="{43E521ED-7EE3-47F0-8CB3-A655151C58BF}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{43E521ED-7EE3-47F0-8CB3-A655151C58BF}"/>
   </bookViews>
   <sheets>
     <sheet name="CAN" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="126">
   <si>
     <t>Sensor</t>
   </si>
@@ -406,6 +406,15 @@
   </si>
   <si>
     <t>Thermocouple Wire T</t>
+  </si>
+  <si>
+    <t>Total SPS Needed</t>
+  </si>
+  <si>
+    <t>Total Estimated Bitrate</t>
+  </si>
+  <si>
+    <t>CAN Frames/s (4 samples/frame)</t>
   </si>
 </sst>
 </file>
@@ -639,7 +648,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
@@ -715,6 +724,7 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1030,10 +1040,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E17F77F4-0151-4F03-B78F-3DE1335D706A}">
-  <dimension ref="A2:P40"/>
+  <dimension ref="A2:P45"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="I33" sqref="I33"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="B46" sqref="B46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1459,6 +1469,33 @@
       <c r="E40" t="e">
         <f>'Sensor Table'!#REF!+#REF!+#REF!</f>
         <v>#REF!</v>
+      </c>
+    </row>
+    <row r="43" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B43" t="s">
+        <v>123</v>
+      </c>
+      <c r="C43">
+        <f>SUM('Sensor Table'!F:F)</f>
+        <v>3150</v>
+      </c>
+    </row>
+    <row r="44" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B44" s="39" t="s">
+        <v>125</v>
+      </c>
+      <c r="C44">
+        <f>C43/4</f>
+        <v>787.5</v>
+      </c>
+    </row>
+    <row r="45" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B45" t="s">
+        <v>124</v>
+      </c>
+      <c r="C45">
+        <f>C44*F28</f>
+        <v>123637.5</v>
       </c>
     </row>
   </sheetData>
@@ -1816,7 +1853,7 @@
   <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+      <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
